--- a/SupplementaryTables/Supplementary Table 14.xlsx
+++ b/SupplementaryTables/Supplementary Table 14.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddabl\Documents\Network\drugs\drg1_paper\supp\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsiwo/Desktop/NatureMachineIntelligenceFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17FDFDEA-E680-45D7-B0E8-759311DEA98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E0F53-1233-3548-8DDB-7E627299AC3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="1240" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="moret_all_rating_no1_sars_alpha" sheetId="1" r:id="rId1"/>
+    <sheet name="S14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">moret_all_rating_no1_sars_alpha!$A$1:$D$655</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">moret_all_rating_no1_sars_alpha!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'S14'!$A$1:$D$655</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'S14'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2839,16 +2839,16 @@
   <dimension ref="A1:D651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="85.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>341</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.97560977935791005</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0.80000001192092896</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0.78723406791687001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>276</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0.78571426868438698</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0.77999997138976995</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>272</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0.75925928354263295</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>0.73913043737411499</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0.73913043737411499</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.73913043737411499</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0.73469388484954801</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0.73469388484954801</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>364</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0.727272748947143</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0.72000002861022905</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>230</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0.704545438289642</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0.70212763547897294</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.70212763547897294</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0.69767439365386896</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>196</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0.69387757778167702</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0.69230771064758301</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0.68000000715255704</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.68000000715255704</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0.68000000715255704</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0.68000000715255704</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0.67307692766189497</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0.66000002622604304</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0.65957444906234697</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>327</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0.65517240762710505</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0.65384614467620805</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0.65384614467620805</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>227</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>0.65384614467620805</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0.65306121110916104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0.64999997615814198</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0.64444446563720703</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0.64285713434219305</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0.64150941371917702</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0.64150941371917702</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0.63999998569488503</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0.636363625526428</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0.636363625526428</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0.636363625526428</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0.63461536169052102</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>195</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.62745100259780795</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>0.62264150381088201</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>240</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0.61818182468414296</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0.61538463830947798</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0.61538463830947798</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.61538463830947798</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>225</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.61403506994247403</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>315</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0.61016947031021096</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>332</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0.60869562625884999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>267</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0.603773593902587</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>289</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0.603773593902587</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>283</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0.60000002384185702</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>0.60000002384185702</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0.59701490402221602</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0.59649121761321999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0.59615385532379095</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0.59615385532379095</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0.595744669437408</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>228</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0.59259259700775102</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0.59259259700775102</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0.58823531866073597</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>138</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0.58620691299438399</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>412</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>248</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0.57999998331069902</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>0.57999998331069902</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>63</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0.57894736528396595</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0.57692307233810403</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0.57407408952713002</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>275</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>213</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>356</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0.56862747669219904</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.56666666269302302</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0.56666666269302302</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0.56000000238418501</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>75</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0.56000000238418501</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>278</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0.55737704038619995</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>0.55357140302658003</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0.55319148302078203</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>0.548387110233306</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>197</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0.545454561710357</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0.545454561710357</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>236</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0.54385966062545699</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0.54385966062545699</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0.54385966062545699</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0.54237288236617998</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0.54166668653488104</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>190</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0.54166668653488104</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>0.54166668653488104</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>394</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0.54098361730575495</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>369</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0.54098361730575495</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>304</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0.54098361730575495</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>294</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0.54000002145767201</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>256</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>238</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>0.53703701496124201</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0.53571426868438698</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0.53448277711868197</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>281</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>368</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0.52830189466476396</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>313</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0.52830189466476396</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>388</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0.52777779102325395</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0.52727270126342696</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>249</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>0.52727270126342696</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>120</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0.52727270126342696</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>257</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>0.52727270126342696</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0.52727270126342696</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>73</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>0.52380955219268799</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>234</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0.52238804101943903</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>274</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0.518518507480621</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0.518518507480621</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0.518518507480621</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.518518507480621</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0.51785713434219305</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>265</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0.51785713434219305</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>131</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0.51785713434219305</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>250</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0.51785713434219305</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>115</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0.51612901687622004</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>0.51612901687622004</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>183</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0.51612901687622004</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>285</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0.51063829660415605</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>117</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0.50980395078659002</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>135</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0.50943398475646895</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>0.50943398475646895</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0.50943398475646895</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>123</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0.50909090042114202</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>126</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0.50877195596694902</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>109</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>143</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>339</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>284</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>411</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>61</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>261</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>134</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>146</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.49206349253654402</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>150</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0.491803288459777</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0.49152541160583402</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>154</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0.49090909957885698</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0.49090909957885698</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>98</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0.49056604504585199</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>93</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0.48684209585189803</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>469</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0.48571428656577997</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>155</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0.48571428656577997</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>451</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>0.48529410362243602</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0.48387095332145602</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0.48275861144065801</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>162</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0.48275861144065801</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>322</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>0.48275861144065801</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>0.48275861144065801</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>317</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0.48214286565780601</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>164</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0.48214286565780601</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>430</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0.47826087474822998</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0.47619047760963401</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>172</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.47457626461982699</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>323</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>0.47457626461982699</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>226</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>174</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>176</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>210</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>178</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0.47222220897674499</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>56</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0.47058823704719499</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>51</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0.46938776969909601</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>179</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0.46774193644523598</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>255</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>182</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>186</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0.46551725268363903</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>302</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>0.46551725268363903</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0.46551725268363903</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>185</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0.46551725268363903</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>18</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0.46428570151329002</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>206</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0.46428570151329002</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>311</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0.46428570151329002</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>0.46428570151329002</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>362</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0.46376812458038302</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>392</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0.46268656849861101</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>407</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0.46153846383094699</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>128</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0.46153846383094699</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>361</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>0.460317462682724</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>0.46000000834464999</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>74</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0.45945945382118197</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>71</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0.45762711763381902</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>303</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.45714285969734098</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>405</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0.454545468091964</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0.454545468091964</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>200</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0.454545468091964</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>198</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0.454545468091964</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>201</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>0.453125</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>139</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0.45283019542693997</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>349</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0.451612889766693</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>60</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0.450980395078659</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>203</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>205</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>207</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0.44827586412429798</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>0.44827586412429798</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0.44776120781898499</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>314</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0.44776120781898499</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>137</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0.44642856717109602</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>231</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>0.44444444775581299</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>0.44444444775581299</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>444</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>0.44444444775581299</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>214</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0.44444444775581299</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>220</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0.44262295961379999</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>221</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0.44262295961379999</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>79</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>0.440677970647811</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>222</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>0.440677970647811</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>385</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0.440677970647811</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>224</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0.440677970647811</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>366</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0.43939393758773798</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>308</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>0.43939393758773798</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.43859648704528797</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>348</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>325</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0.43589743971824602</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>36</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0.43548387289047202</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>229</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0.434782594442367</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0.43396225571632302</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>193</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0.43396225571632302</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>395</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0.43243244290351801</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>425</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0.431818187236785</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>306</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0.43137255311012201</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>340</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0.43137255311012201</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>235</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>0.431034475564956</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>237</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0.431034475564956</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>321</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0.43076923489570601</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>365</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0.42857143282890298</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>351</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0.42857143282890298</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>343</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0.42857143282890298</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>215</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0.42857143282890298</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0.42622950673103299</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>247</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.42622950673103299</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0.42622950673103299</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>246</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>0.42622950673103299</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>251</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0.42372882366180398</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0.42307692766189497</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>217</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>0.421875</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>521</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0.42105263471603299</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>41</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0.42028984427451999</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>298</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0.41935482621192899</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>258</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>0.41935482621192899</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>259</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0.417910456657409</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>262</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>242</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>264</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>477</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0.414634138345718</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>277</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0.41379311680793701</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>26</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>0.41379311680793701</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>0.41269841790199202</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>426</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0.41176471114158603</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>312</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0.41176471114158603</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>268</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0.41176471114158603</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>112</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0.41176471114158603</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>271</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0.40983605384826599</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>439</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.40983605384826599</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>254</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0.409090906381607</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>354</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0.40740740299224798</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.40740740299224798</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>31</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0.40677964687347401</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>108</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0.40677964687347401</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>344</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>329</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>0.404255330562591</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>342</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0.403846144676208</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>279</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0.40322580933570801</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>145</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>0.40322580933570801</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>49</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0.40322580933570801</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>280</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0.40298506617545998</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>47</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>0.40298506617545998</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>103</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>413</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>282</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>119</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>287</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>360</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0.39655172824859602</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>336</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0.396226406097412</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>458</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0.39583334326744002</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>292</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0.394366204738616</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>404</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>0.39393940567970198</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>383</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>0.39285713434219299</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>484</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0.39215686917304898</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>350</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>300</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>0.38983049988746599</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>353</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>0.38983049988746599</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>78</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>0.38709676265716497</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>307</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0.38596490025520303</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>113</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.38461539149284302</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>355</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0.38333332538604697</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>319</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.38333332538604697</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>32</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0.38333332538604697</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>293</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0.38235294818878102</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>457</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0.38235294818878102</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>163</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>0.38181817531585599</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>429</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0.38181817531585599</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>384</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>367</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>372</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>440</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>393</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>245</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>291</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>0.37777778506278897</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>375</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>406</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>438</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>0.37333333492278997</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>318</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>0.373134315013885</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>81</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.37288135290145802</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>320</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0.37209302186965898</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>470</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0.37209302186965898</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>324</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0.37096774578094399</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>142</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>0.37037035822868303</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0.369230777025222</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>241</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0.369230777025222</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>326</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>0.36842104792594899</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>347</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>0.36842104792594899</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>53</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0.36764705181121798</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>328</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0.36666667461395203</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>517</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>0.36538460850715598</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>316</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>501</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>330</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>189</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>62</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>334</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>0.36231884360313399</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>0.36231884360313399</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>64</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0.362068951129913</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>110</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0.36111110448837203</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>0.36111110448837203</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>337</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0.36111110448837203</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>335</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0.36065572500228799</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>432</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0.35897436738014199</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>338</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0.35897436738014199</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>446</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0.35849055647849998</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>498</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>0.35616439580917297</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>270</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0.35593220591545099</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>363</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0.35483869910240101</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>419</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0.35384616255760099</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>77</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0.35294118523597701</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>76</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>0.35294118523597701</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>431</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0.350877195596694</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>495</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>0.34999999403953502</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>57</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>0.34848484396934498</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>509</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>0.34782609343528698</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>476</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0.346153855323791</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>305</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0.34285715222358698</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>358</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0.34210526943206698</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>345</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>0.34146341681480402</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>516</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>0.34146341681480402</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>401</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>0.34000000357627802</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>273</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>0.34000000357627802</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>418</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>0.33898305892944303</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>381</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>0.33846154808998102</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>331</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0.33823528885841297</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>97</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>0.33823528885841297</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>606</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>389</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>379</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>524</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>380</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>447</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>156</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0.32894736528396601</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>452</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>192</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>118</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>408</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>0.32727271318435602</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>448</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.32653060555458002</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>371</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>0.32608696818351701</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>373</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>0.32499998807907099</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>141</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0.323529422283172</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>386</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0.32222223281860302</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>505</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>456</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>409</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>199</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>0.31764706969261097</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>122</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0.31746032834053001</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>454</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>0.31746032834053001</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>420</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0.31707316637039101</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>374</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0.31707316637039101</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>376</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0.31578946113586398</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>548</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>0.31481480598449701</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>424</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0.31428572535514798</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0.31428572535514798</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>105</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0.31428572535514798</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>398</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>0.31372550129890397</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>397</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0.31372550129890397</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>387</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0.31147539615631098</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>400</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>0.31111112236976601</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>233</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0.31034481525421098</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>526</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>0.30909091234207098</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>590</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0.30769231915473899</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>434</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>0.30769231915473899</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>391</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0.30769231915473899</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>465</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0.30555555224418601</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>208</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0.30434781312942499</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>194</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.30303031206130898</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>359</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0.30232557654380798</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>415</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>417</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0.297872334718704</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>158</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0.29577463865280101</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>455</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>0.295454531908035</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>410</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>416</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>610</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>500</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>481</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>460</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>0.29411765933036799</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>494</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>0.29333332180976801</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>488</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>0.29333332180976801</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>461</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>0.29230770468711798</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>427</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>0.29230770468711798</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>534</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0.29166665673255898</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>422</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>0.29090908169746399</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>586</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0.29090908169746399</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>263</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0.28915661573410001</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>485</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0.28846153616905201</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>513</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>0.28813558816909701</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>309</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>0.28787878155708302</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>504</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0.28787878155708302</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>565</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>0.28749999403953502</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>491</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>357</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>533</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>583</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>614</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>0.28333333134651101</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>489</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>0.28301885724067599</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>582</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>0.28301885724067599</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>433</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0.28260868787765497</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>352</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>0.28260868787765497</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>514</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0.28260868787765497</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>483</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>436</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0.28070175647735501</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>541</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>0.27777779102325401</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>159</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0.27777779102325401</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>540</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>0.27692309021949701</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>566</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>0.27659574151039101</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>459</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>0.27586206793785001</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>435</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>0.27500000596046398</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>377</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0.27500000596046398</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>551</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0.274509817361831</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>475</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>0.274509817361831</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>449</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0.274193555116653</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>512</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>0.274193555116653</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>450</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>568</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>616</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>260</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>0.27160492539405801</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>642</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>0.27118644118308999</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>0.27118644118308999</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>567</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>0.27083334326744002</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>474</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>0.27083334326744002</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>584</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0.27027025818824701</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>299</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>0.27027025818824701</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>0.26984128355979897</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>589</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>0.26785713434219299</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>295</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>0.26760563254356301</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>496</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>0.266666680574417</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>555</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>442</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>472</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0.26530611515045099</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>602</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>0.26470589637756298</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>507</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>0.26315790414810097</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>462</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0.26229506731033297</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>585</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0.26190477609634399</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>399</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>0.25974026322364802</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>421</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>0.25925925374031</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>471</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0.25806450843811002</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>503</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0.25757575035095198</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>473</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>0.25714287161826999</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>414</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0.25641027092933599</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>487</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>0.25490197539329501</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>378</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>466</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>0.25396826863288802</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>561</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0.253333330154418</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>537</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>437</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>563</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>493</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>486</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>573</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>532</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>479</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>0.24615384638309401</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>580</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>0.24615384638309401</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>490</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>0.24615384638309401</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>522</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>0.245283022522926</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>301</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0.244444444775581</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>645</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>0.244444444775581</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>536</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0.24390244483947701</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>370</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>508</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>595</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0.24193547666072801</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>445</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0.24193547666072801</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>511</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>0.24193547666072801</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>564</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>0.240740746259689</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>556</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0.240740746259689</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>0.240506336092948</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>286</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>0.240506336092948</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>502</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>0.239999994635581</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>520</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>0.239999994635581</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>594</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>0.23880596458911801</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>463</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0.23809523880481701</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>506</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0.23809523880481701</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>538</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0.237288132309913</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>553</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0.237288132309913</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>599</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>499</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>297</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>559</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>510</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>0.235294118523597</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>612</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>0.235294118523597</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>390</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>0.23376622796058599</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>601</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0.233333334326744</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>515</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>0.233333334326744</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>423</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>0.233333334326744</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>623</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>0.23287671804428101</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>608</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0.23214285075664501</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>147</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>0.23214285075664501</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>478</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>0.23188406229019101</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>523</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>0.23076923191547299</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>579</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0.23076923191547299</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>543</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>0.23076923191547299</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>468</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>0.22988505661487499</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>531</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>0.22988505661487499</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>592</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>0.229508191347122</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>574</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>0.22891566157341001</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>577</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>0.22857142984866999</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>528</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>0.22857142984866999</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>527</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>0.22807016968727101</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>624</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0.22666667401790599</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>428</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0.225352108478546</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>619</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0.22448979318141901</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>629</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>0.22448979318141901</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>648</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>402</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>562</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>600</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>443</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>497</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>635</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>0.22058823704719499</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>539</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0.22058823704719499</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>627</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>544</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>571</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>0.218390807509422</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>621</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0.21818181872367801</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>518</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0.21818181872367801</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>542</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>0.217391297221183</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>604</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0.217391297221183</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>519</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>596</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>547</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>569</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>0.21649484336376101</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>618</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>0.21568627655506101</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>554</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>0.21538461744785301</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>441</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>0.21538461744785301</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>588</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>0.21276596188545199</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>597</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>0.21250000596046401</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>625</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.21250000596046401</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>333</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>0.21250000596046401</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>632</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0.21212121844291601</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>545</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0.21212121844291601</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>552</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>0.20987653732299799</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>557</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0.207547172904014</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>530</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>0.207317069172859</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>613</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>0.20652173459529799</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>626</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0.20588235557079301</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>630</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>0.20547945797443301</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>482</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>0.20547945797443301</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>403</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>0.20512820780277199</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>639</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0.20408163964748299</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>587</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>0.20408163964748299</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>581</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0.20289854705333699</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>550</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>0.20224718749523099</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>535</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>615</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>634</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>546</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0.19780220091342901</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>575</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>0.19736842811107599</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>620</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>0.19736842811107599</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>605</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>0.19736842811107599</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>549</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>0.197183102369308</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>467</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0.19607843458652399</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>611</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>0.19512194395065299</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>637</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>0.19444444775581299</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>640</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>0.19354838132858199</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>628</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>0.19230769574642101</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>617</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0.19230769574642101</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>636</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>0.19230769574642101</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>638</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>0.191489368677139</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>609</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.190476194024086</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>631</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0.190476194024086</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>593</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>0.18965516984462699</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>633</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>0.18840579688549</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>598</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>560</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>0.18666666746139499</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>558</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>0.18644067645072901</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>578</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>0.18571428954601199</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>646</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>0.18518517911434099</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>480</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>0.18518517911434099</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>649</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>0.18421052396297399</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>607</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>0.18421052396297399</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>572</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>0.183673471212387</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>591</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>0.18333333730697601</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>603</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>0.178947374224662</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>464</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>0.17499999701976701</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>622</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0.16666667163372001</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>0.16666667163372001</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>643</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>0.159574463963508</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>641</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>570</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>0.153846159577369</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>650</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>0.137931033968925</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>651</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>0.137931033968925</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>647</v>
       </c>
@@ -10301,7 +10301,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D651">
+  <sortState ref="A2:D651">
     <sortCondition descending="1" ref="D2:D651"/>
   </sortState>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0" footer="0"/>
